--- a/excel/test/book1.xlsx
+++ b/excel/test/book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\pycharm\python-box\excel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0E8AF5-85E1-420F-BAF4-188B8EABFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198E7AE6-8EB4-48D2-8690-E5C34ABD9D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="1935" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -343,7 +344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A40A-FCD9-45FE-BED6-1D29B34E4E80}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -354,4 +355,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>